--- a/spreadsheets/cana-de-açúcar_2020.xlsx
+++ b/spreadsheets/cana-de-açúcar_2020.xlsx
@@ -204,11 +204,11 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="F42:I56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
